--- a/medicine/Médecine vétérinaire/Birger_Furugård/Birger_Furugård.xlsx
+++ b/medicine/Médecine vétérinaire/Birger_Furugård/Birger_Furugård.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Birger_Furug%C3%A5rd</t>
+          <t>Birger_Furugård</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Birger Furugård, né le 8 décembre 1887 à Silbodal et mort le 4 décembre 1961 à Nyed, est un vétérinaire et un homme politique d'extrême droite suédois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Birger_Furug%C3%A5rd</t>
+          <t>Birger_Furugård</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de la province du Värmland, Birger Lundin est le quatrième fils de l'officier municipal Johan Peter Lundin. Il entre à l'université de Lund à l'automne 1911. L'un de ses professeurs, le socialiste Bengt Lidforss (en), l'influence tout particulièrement, et suscite son intérêt pour le concept de national-socialisme. Il est également inspiré par les théories raciales de Houston Stewart Chamberlain.
 Dans les années 1920, Furugård entre en contact avec l'un des proches d'Adolf Hitler, le poète Dietrich Eckart, et se nourrit des idées racialistes et antisémites de Hans Günther et Theodor Fritsch. Le 12 août 1924, Birger et ses frères Gunnar et Sigurd annoncent la création de l'Association nationale-socialiste suédoise pour la liberté (Svenska Nationalsocialistiska Frihetsförbundet, S.N.F.f.), qui devient en 1926 le Parti national-socialiste des paysans et travailleurs de Suède (Svenska Nationalsocialistiska Bonde- och Arbetarpartiet, SNBA). Le faible écho remporté par ce parti entraîne sa fusion en octobre 1930 avec le Parti national-socialiste populaire (Nationalsocialistiska folkpartiet) de Sven Olov Lindholm et l'Association pour le renouveau du peuple suédois (Nysvenska folkförbundet) de Stig Bille, afin de former l'Association de la nouvelle Suède nationale-socialiste (Nysvenska Nationalsocialistiska Förbundet, NNSF), rebaptisée Parti national-socialiste suédois (Svenska nationalsocialistiska partiet, SNSP) dès l'année suivante. Furugård devient le président du nouveau parti, tandis que Lindholm occupe les postes de secrétaire et de rédacteur en chef de son organe de presse, Vår Kamp (« Notre combat »).
